--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -1,99 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\fno_dashboard\backend\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D0F348-20C9-4F4B-9FFA-625FF7182480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Weekly FNO Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Price Change (%)</t>
-  </si>
-  <si>
-    <t>Volume Change (%)</t>
-  </si>
-  <si>
-    <t>OI Trend</t>
-  </si>
-  <si>
-    <t>PCR</t>
-  </si>
-  <si>
-    <t>HDFCBANK</t>
-  </si>
-  <si>
-    <t>RELIANCE</t>
-  </si>
-  <si>
-    <t>TCS</t>
-  </si>
-  <si>
-    <t>INFY</t>
-  </si>
-  <si>
-    <t>Short Covering</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>ICICIBANK</t>
-  </si>
-  <si>
-    <t>Long Unwinding</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,52 +42,92 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,7 +165,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -218,7 +199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,10 +233,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,125 +408,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price Change (%)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Volume Change (%)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>OI Trend</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44.91</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1.3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>-5.6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>776.86</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>45.91</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-5.36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-0.4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.05</v>
+      <c r="C10" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.12</v>
+        <v>1.51</v>
       </c>
       <c r="C2" t="n">
-        <v>44.91</v>
+        <v>-61.04</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="C3" t="n">
-        <v>26.36</v>
+        <v>-84.02</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.58</v>
+        <v>-7.68</v>
       </c>
       <c r="C4" t="n">
-        <v>776.86</v>
+        <v>-42.52</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -518,18 +518,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.43</v>
+        <v>0.13</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.29</v>
+        <v>-59.37</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>Up</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -539,14 +539,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6</v>
+        <v>0.77</v>
       </c>
       <c r="C6" t="n">
-        <v>45.91</v>
+        <v>-86.88</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Down</t>
+          <t>Up</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.84</v>
+        <v>-1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.16</v>
+        <v>-92.64</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.36</v>
+        <v>-2.76</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1</v>
+        <v>-95.75</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.72</v>
+        <v>-3.86</v>
       </c>
       <c r="C9" t="n">
-        <v>2.48</v>
+        <v>-55.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.95</v>
+        <v>2.76</v>
       </c>
       <c r="C10" t="n">
-        <v>19.92</v>
+        <v>-94.78</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.51</v>
+        <v>4.12</v>
       </c>
       <c r="C2" t="n">
-        <v>-61.04</v>
+        <v>-32.75</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -476,18 +476,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.66</v>
+        <v>-2.71</v>
       </c>
       <c r="C3" t="n">
-        <v>-84.02</v>
+        <v>-70.83</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7.68</v>
+        <v>-6.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-42.52</v>
+        <v>106.84</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.13</v>
+        <v>0.89</v>
       </c>
       <c r="C5" t="n">
-        <v>-59.37</v>
+        <v>-58.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -539,14 +539,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.77</v>
+        <v>-1.03</v>
       </c>
       <c r="C6" t="n">
-        <v>-86.88</v>
+        <v>432.52</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.5</v>
+        <v>-4.28</v>
       </c>
       <c r="C7" t="n">
-        <v>-92.64</v>
+        <v>47.11</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.76</v>
+        <v>-2.29</v>
       </c>
       <c r="C8" t="n">
-        <v>-95.75</v>
+        <v>-12.89</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.86</v>
+        <v>-5.74</v>
       </c>
       <c r="C9" t="n">
-        <v>-55.3</v>
+        <v>-0.01</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.76</v>
+        <v>1.61</v>
       </c>
       <c r="C10" t="n">
-        <v>-94.78</v>
+        <v>-54.83</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.12</v>
+        <v>4.09</v>
       </c>
       <c r="C2" t="n">
-        <v>-32.75</v>
+        <v>-90.90000000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.71</v>
+        <v>-1.93</v>
       </c>
       <c r="C3" t="n">
-        <v>-70.83</v>
+        <v>-94.90000000000001</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.35</v>
+        <v>-1.11</v>
       </c>
       <c r="C4" t="n">
-        <v>106.84</v>
+        <v>-97.15000000000001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.89</v>
+        <v>2.89</v>
       </c>
       <c r="C5" t="n">
-        <v>-58.7</v>
+        <v>-93.31</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.03</v>
+        <v>-3.31</v>
       </c>
       <c r="C6" t="n">
-        <v>432.52</v>
+        <v>-84.37</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.28</v>
+        <v>-5.28</v>
       </c>
       <c r="C7" t="n">
-        <v>47.11</v>
+        <v>-81.58</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.29</v>
+        <v>-3.03</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.89</v>
+        <v>-84.91</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.74</v>
+        <v>-5.4</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01</v>
+        <v>-88.95</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -623,10 +623,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="C10" t="n">
-        <v>-54.83</v>
+        <v>-27.67</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>

--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -455,18 +455,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.09</v>
+        <v>-0.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-90.90000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.93</v>
+        <v>-2.94</v>
       </c>
       <c r="C3" t="n">
-        <v>-94.90000000000001</v>
+        <v>-26.58</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.11</v>
+        <v>-3.29</v>
       </c>
       <c r="C4" t="n">
-        <v>-97.15000000000001</v>
+        <v>15.05</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -518,18 +518,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.89</v>
+        <v>-0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>-93.31</v>
+        <v>62.69</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.31</v>
+        <v>-9</v>
       </c>
       <c r="C6" t="n">
-        <v>-84.37</v>
+        <v>-27.83</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.28</v>
+        <v>-4.16</v>
       </c>
       <c r="C7" t="n">
-        <v>-81.58</v>
+        <v>-14.74</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -581,10 +581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.03</v>
+        <v>-4.48</v>
       </c>
       <c r="C8" t="n">
-        <v>-84.91</v>
+        <v>54.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.4</v>
+        <v>-2.41</v>
       </c>
       <c r="C9" t="n">
-        <v>-88.95</v>
+        <v>104.26</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
@@ -623,14 +623,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.69</v>
+        <v>-2.01</v>
       </c>
       <c r="C10" t="n">
-        <v>-27.67</v>
+        <v>106.76</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Up</t>
+          <t>Down</t>
         </is>
       </c>
       <c r="E10" t="n">

--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -413,231 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Price Change (%)</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Volume Change (%)</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>OI Trend</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>PCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ICICIBANK.NS</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>SBIN.NS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-2.94</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-26.58</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AXISBANK.NS</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>-3.29</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HDFCBANK.NS</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62.69</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BAJFINANCE.NS</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-27.83</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>INFY.NS</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-4.16</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-14.74</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TCS.NS</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.48</v>
-      </c>
-      <c r="C8" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RELIANCE.NS</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2.41</v>
-      </c>
-      <c r="C9" t="n">
-        <v>104.26</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>M&amp;M.NS</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2.01</v>
-      </c>
-      <c r="C10" t="n">
-        <v>106.76</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Down</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/backend/Weekly_FNO_Analysis_With_OI.xlsx
+++ b/backend/Weekly_FNO_Analysis_With_OI.xlsx
@@ -413,14 +413,231 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price Change (%)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Volume Change (%)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>OI Trend</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>PCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ICICIBANK.NS</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SBIN.NS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-26.58</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62.69</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-27.83</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-4.16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-14.74</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>104.26</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="C10" t="n">
+        <v>106.76</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Down</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>